--- a/testdata/TestSheet.xlsx
+++ b/testdata/TestSheet.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,6 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>

--- a/testdata/TestSheet.xlsx
+++ b/testdata/TestSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAB59F0-B7AE-4DB0-983B-55B9D2CFBCF8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35234BC-8222-4B0C-B065-B04AC194696C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,21 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Num1</t>
+    <t>Nadpis</t>
   </si>
   <si>
-    <t>Num2</t>
+    <t>Row 1</t>
   </si>
   <si>
-    <t>Num3</t>
+    <t>Row 2</t>
   </si>
   <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Nadpis</t>
+    <t>Row 3</t>
   </si>
 </sst>
 </file>
@@ -57,15 +54,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -103,12 +100,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,68 +386,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="5.28515625" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+    <row r="1" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <f>$B$3</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <f>$B$4</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <f>$B$4</f>
         <v>2</v>
-      </c>
-      <c r="C5">
-        <f>B5+1</f>
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <f>B6+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <f>SUM(B4:B6)</f>
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
-        <f>SUM(C4:C6)</f>
-        <v>9</v>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4">
+        <f>SUM(C3:C5)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/TestSheet.xlsx
+++ b/testdata/TestSheet.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35234BC-8222-4B0C-B065-B04AC194696C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ABF5EC-E7C4-4A2E-BD15-412AD77A917E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="V100" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nadpis</t>
   </si>
@@ -39,12 +40,14 @@
   <si>
     <t>Row 3</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,12 +103,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,24 +389,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -412,7 +415,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f>$B$3</f>
         <v>1</v>
       </c>
@@ -424,7 +427,7 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>$B$4</f>
         <v>2</v>
       </c>
@@ -436,17 +439,23 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f>$B$4</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3">
         <f>SUM(C3:C5)</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>'V100'!A1</f>
+        <v>x</v>
       </c>
     </row>
   </sheetData>
@@ -456,4 +465,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B4CDE8-7923-4B77-9F4B-BDC122B9FA48}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/TestSheet.xlsx
+++ b/testdata/TestSheet.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48,6 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,8 +398,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/testdata/TestSheet.xlsx
+++ b/testdata/TestSheet.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ABF5EC-E7C4-4A2E-BD15-412AD77A917E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E1C270-7424-4392-825D-DD3465F8BF1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="V100" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -48,7 +42,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,13 +386,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -441,8 +434,8 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f>$B$4</f>
-        <v>2</v>
+        <f>$B$5</f>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -450,7 +443,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="3">
         <f>SUM(C3:C5)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/testdata/TestSheet.xlsx
+++ b/testdata/TestSheet.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -42,6 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,8 +392,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
